--- a/Assignment7/California_Unemployment.xlsx
+++ b/Assignment7/California_Unemployment.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eunice\Desktop\Spring2023\Web Mapping and Data Visualization\LA558_Eunice_Amissah\Assignment7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169A2493-15F6-4D4F-86EA-92057F71BD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4911492F-BC5B-4C39-8645-FE54C488D9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16690" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{339C39FA-5CA3-4FCD-B7CC-8FC31C2310EB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10000" xr2:uid="{339C39FA-5CA3-4FCD-B7CC-8FC31C2310EB}"/>
   </bookViews>
   <sheets>
     <sheet name="UnemploymentStat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -309,20 +309,18 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -642,1373 +640,1374 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE336CF3-F6A7-480F-8E82-E1339A43E7C0}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C59"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.36328125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="15.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.26953125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.36328125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="15.7265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.6328125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="6">
         <v>6001</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>829000</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>804500</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>24500</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="1">
         <v>0.03</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6">
         <v>6003</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>450</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>430</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>20</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6">
         <v>6005</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>14410</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>13850</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>570</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="1">
         <v>3.9E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6">
         <v>6007</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>92500</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>89000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>3600</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6">
         <v>6009</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>22390</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>21690</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>710</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="6">
         <v>6011</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>10130</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>9400</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>740</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="1">
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="6">
         <v>6013</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>553600</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>536200</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>17400</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="1">
         <v>3.1E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="6">
         <v>6015</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>9490</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>9070</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>420</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="6">
         <v>6017</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>93900</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>91200</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>2700</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="6">
         <v>6019</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>456500</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>432700</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>23800</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="6">
         <v>6021</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>13000</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>12410</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>590</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="1">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="6">
         <v>6023</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>60100</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>58000</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>2100</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="6">
         <v>6025</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>71700</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>60000</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>11700</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="1">
         <v>0.16300000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="6">
         <v>6027</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>8350</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>8100</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>250</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="1">
         <v>0.03</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="6">
         <v>6029</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>397800</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>374600</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>23200</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="6">
         <v>6031</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>56800</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>53700</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>3100</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="1">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="6">
         <v>6033</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>28480</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>27270</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>1210</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="6">
         <v>6035</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>9300</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>8980</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>320</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="6">
         <v>6037</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>4958100</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>4744500</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <v>213600</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="6">
         <v>6039</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>63900</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>60700</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>3200</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="1">
         <v>0.05</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="6">
         <v>6041</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>132600</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>129500</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>3200</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="1">
         <v>2.4E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="6">
         <v>6043</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>7720</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>7460</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>270</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="6">
         <v>6045</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>37630</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>36350</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <v>1280</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="6">
         <v>6047</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>117800</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>110900</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>6900</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="6">
         <v>6049</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>3200</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>3070</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>130</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="1">
         <v>3.9E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="6">
         <v>6051</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="2">
         <v>8540</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="2">
         <v>8250</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="2">
         <v>300</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="6">
         <v>6053</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="2">
         <v>229100</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>220600</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <v>8500</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="6">
         <v>6055</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="2">
         <v>73200</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="2">
         <v>71300</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <v>1900</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="1">
         <v>2.7E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="6">
         <v>6057</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="2">
         <v>48580</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="2">
         <v>47140</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="2">
         <v>1440</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="1">
         <v>0.03</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="6">
         <v>6059</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="2">
         <v>1598700</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="2">
         <v>1553300</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="2">
         <v>45500</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="6">
         <v>6061</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="2">
         <v>195200</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="2">
         <v>189800</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="2">
         <v>5400</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="6">
         <v>6063</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="2">
         <v>7740</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="2">
         <v>7410</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="2">
         <v>330</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="6">
         <v>6065</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="2">
         <v>1152500</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="2">
         <v>1107100</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="2">
         <v>45400</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="1">
         <v>3.9E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="6">
         <v>6067</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="2">
         <v>732300</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="2">
         <v>706700</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="2">
         <v>25600</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="6">
         <v>6069</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="2">
         <v>32500</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="2">
         <v>31200</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="2">
         <v>1300</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="1">
         <v>0.04</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="6">
         <v>6071</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="2">
         <v>1007500</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="2">
         <v>970000</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="2">
         <v>37500</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="6">
         <v>6073</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="2">
         <v>1600000</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="2">
         <v>1550600</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="2">
         <v>49400</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="1">
         <v>3.1E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="6">
         <v>6075</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="2">
         <v>576700</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="2">
         <v>563700</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="2">
         <v>13000</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="1">
         <v>2.3E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="6">
         <v>6077</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="2">
         <v>346100</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="2">
         <v>330300</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="2">
         <v>15700</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="6">
         <v>6079</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="2">
         <v>137100</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="2">
         <v>133400</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="2">
         <v>3700</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="1">
         <v>2.7E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="6">
         <v>6081</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="2">
         <v>456800</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="2">
         <v>447000</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="2">
         <v>9800</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="6">
         <v>6083</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="2">
         <v>225800</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="2">
         <v>219300</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="2">
         <v>6400</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="6">
         <v>6085</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="2">
         <v>1049900</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="2">
         <v>1025100</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="2">
         <v>24800</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="1">
         <v>2.4E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="6">
         <v>6087</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="2">
         <v>135900</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="2">
         <v>131200</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="2">
         <v>4700</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="6">
         <v>6089</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="2">
         <v>73400</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="2">
         <v>70600</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="2">
         <v>2900</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="1">
         <v>3.9E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="6">
         <v>6091</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="2">
         <v>1370</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="2">
         <v>1330</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="2">
         <v>40</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="1">
         <v>2.7E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="6">
         <v>6093</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="2">
         <v>17180</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="2">
         <v>16440</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="2">
         <v>730</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="6">
         <v>6095</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="2">
         <v>202700</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="2">
         <v>195300</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="2">
         <v>7400</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="6">
         <v>6097</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="2">
         <v>251500</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="2">
         <v>244600</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="2">
         <v>6800</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="1">
         <v>2.7E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="6">
         <v>6099</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="2">
         <v>244800</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="2">
         <v>233700</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="2">
         <v>11100</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="6">
         <v>6101</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="2">
         <v>47100</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="2">
         <v>44700</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="2">
         <v>2300</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="1">
         <v>0.05</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="6">
         <v>6103</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="2">
         <v>26190</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="2">
         <v>25090</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="2">
         <v>1100</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="6">
         <v>6105</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="2">
         <v>4690</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="2">
         <v>4520</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="2">
         <v>170</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="6">
         <v>6107</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="2">
         <v>208600</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="2">
         <v>193300</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="2">
         <v>15300</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="1">
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="6">
         <v>6109</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="2">
         <v>19950</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="2">
         <v>19190</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="2">
         <v>750</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="6">
         <v>6111</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="2">
         <v>413900</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="2">
         <v>399700</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="2">
         <v>14200</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="6">
         <v>6113</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="2">
         <v>109400</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="2">
         <v>105700</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="2">
         <v>3600</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="6">
         <v>6115</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="2">
         <v>32000</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="2">
         <v>30500</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="2">
         <v>1500</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="1">
         <v>4.7E-2</v>
       </c>
     </row>
